--- a/MainTop/02.09.2024/печать_бирки.xlsx
+++ b/MainTop/02.09.2024/печать_бирки.xlsx
@@ -117,7 +117,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -142,16 +142,147 @@
       <family val="0"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -159,8 +290,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -184,6 +330,57 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -195,14 +392,91 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Heading" xfId="20"/>
+    <cellStyle name="Heading 1" xfId="21"/>
+    <cellStyle name="Heading 2" xfId="22"/>
+    <cellStyle name="Text" xfId="23"/>
+    <cellStyle name="Note" xfId="24"/>
+    <cellStyle name="Footnote" xfId="25"/>
+    <cellStyle name="Hyperlink" xfId="26"/>
+    <cellStyle name="Status" xfId="27"/>
+    <cellStyle name="Good" xfId="28"/>
+    <cellStyle name="Neutral" xfId="29"/>
+    <cellStyle name="Bad" xfId="30"/>
+    <cellStyle name="Warning" xfId="31"/>
+    <cellStyle name="Error" xfId="32"/>
+    <cellStyle name="Accent" xfId="33"/>
+    <cellStyle name="Accent 1" xfId="34"/>
+    <cellStyle name="Accent 2" xfId="35"/>
+    <cellStyle name="Accent 3" xfId="36"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -214,7 +488,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
